--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\REPOS\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F967BE5B-2BDB-4742-8B3E-5C1A47023618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE667A0-207F-4B4D-A2D5-2404571CD389}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,285 @@
     <t>MITRE_Tactic</t>
   </si>
   <si>
+    <t>R223_Сбор информации о процессах</t>
+  </si>
+  <si>
+    <t>R223</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Обнаружение</t>
+  </si>
+  <si>
+    <t>R240_Манипуляции с локальным межсетевым экраном</t>
+  </si>
+  <si>
+    <t>R240</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Предотвращение обнаружения</t>
+  </si>
+  <si>
+    <t>R284_Создание исполняемых файлов в общедоступной директории (PowerShell)</t>
+  </si>
+  <si>
+    <t>R284</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>Выполнение</t>
+  </si>
+  <si>
+    <t>R035_Возможный подбор пароля методом перебора учетных записей</t>
+  </si>
+  <si>
+    <t>R035</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>Получение учетных данных</t>
+  </si>
+  <si>
+    <t>R333_Подозрительное создание файлов в директории автозапуска</t>
+  </si>
+  <si>
+    <t>R333</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Закрепление</t>
+  </si>
+  <si>
+    <t>R294_Обфускация команд PowerShell</t>
+  </si>
+  <si>
+    <t>R294</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>R282_Остановка сервиса через CLI</t>
+  </si>
+  <si>
+    <t>R282</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>R075_Подозрительные действия с Kerberos (редко встречаемая ошибка)</t>
+  </si>
+  <si>
+    <t>R075</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>R999_Подозрительные обращения к ActiveSync</t>
+  </si>
+  <si>
+    <t>R999</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>R093_Изменение критичных веток реестра</t>
+  </si>
+  <si>
+    <t>R093</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>R219_Использование VPN портов</t>
+  </si>
+  <si>
+    <t>R219</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Организация управления</t>
+  </si>
+  <si>
+    <t>R078_Обнаружено большое количество вредоносных объектов на одном хосте</t>
+  </si>
+  <si>
+    <t>R078</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>R402_05_Попытка отправки письма с вредоносным файлом нескольким внутренним получателям</t>
+  </si>
+  <si>
+    <t>R402_05</t>
+  </si>
+  <si>
+    <t>402_05</t>
+  </si>
+  <si>
+    <t>Первоначальный доступ</t>
+  </si>
+  <si>
+    <t>R083_Обнаружены следы использования нежелательных утилит</t>
+  </si>
+  <si>
+    <t>R083</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>R084_Использование ПО для удаленного администрирования</t>
+  </si>
+  <si>
+    <t>R084</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>R445_08_Исходящее подключение внутреннего узла к портам управления на внешнем узле</t>
+  </si>
+  <si>
+    <t>R445_08</t>
+  </si>
+  <si>
+    <t>445_08</t>
+  </si>
+  <si>
+    <t>R080_Всплеск заражений ВПО</t>
+  </si>
+  <si>
+    <t>R080</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>R291_Вызов внешних ресурсов для системных приложений Windows</t>
+  </si>
+  <si>
+    <t>R291</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>R224_19_Получение информации о языке системы с помощью утилиты chcp</t>
+  </si>
+  <si>
+    <t>R224_19</t>
+  </si>
+  <si>
+    <t>224_19</t>
+  </si>
+  <si>
+    <t>Сбор данных</t>
+  </si>
+  <si>
+    <t>R402_03_Попытка отправки письма с фишинговой ссылкой нескольким внутренним получателям (KSMG)</t>
+  </si>
+  <si>
+    <t>R402_03</t>
+  </si>
+  <si>
+    <t>402_03</t>
+  </si>
+  <si>
+    <t>R087_Подозрение на внедрение в процесс</t>
+  </si>
+  <si>
+    <t>R087</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>Повышение привилегий</t>
+  </si>
+  <si>
+    <t>R106_Подозрительные PowerShell команды. Подозрение на кодирование команд</t>
+  </si>
+  <si>
+    <t>R106</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>R062_Действия над группой из командной строки</t>
+  </si>
+  <si>
+    <t>R062</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>R082_Обнаружение туннелирования трафика</t>
+  </si>
+  <si>
+    <t>R082</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>R102_Доступ к WinAPI</t>
+  </si>
+  <si>
+    <t>R102</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>R262_Подозрительный доступ к процессу LSASS</t>
+  </si>
+  <si>
+    <t>R262</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>R302_07_Модификация атрибутов времени файла с помощью PowerShell+FilePath</t>
+  </si>
+  <si>
+    <t>R302_07</t>
+  </si>
+  <si>
+    <t>302_07</t>
+  </si>
+  <si>
+    <t>R205_Обнаружен новый DNS сервер</t>
+  </si>
+  <si>
+    <t>R205</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
     <t>R445_07_Исходящее соединение к внешнему хосту по VNC порту</t>
   </si>
   <si>
@@ -43,7 +322,295 @@
     <t>445_07</t>
   </si>
   <si>
-    <t>Первоначальный доступ</t>
+    <t>R402_Потенциально фишинговое письмо</t>
+  </si>
+  <si>
+    <t>R402</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>R222_Сбор информации о сетевых папках</t>
+  </si>
+  <si>
+    <t>R222</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>R053_Создание группы на Windows системе подозрительным пользователем</t>
+  </si>
+  <si>
+    <t>R053</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>R051_Учетная запись была добавлена в группу подозрительным пользователем</t>
+  </si>
+  <si>
+    <t>R051</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>R351_Подозрение на фишинг при создании подозрительного файла</t>
+  </si>
+  <si>
+    <t>R351</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>R003_Удаленный вход под учетной записью локального администратора</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>R423_Подозрительный процесс компиляции файла</t>
+  </si>
+  <si>
+    <t>R423</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>R231_Следы попыток дампа учетных данных</t>
+  </si>
+  <si>
+    <t>R231</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>R061_Действия над учетной записью</t>
+  </si>
+  <si>
+    <t>R061</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>R082_15_Подключение с внутреннего узла по портам сети TOR</t>
+  </si>
+  <si>
+    <t>R082_15</t>
+  </si>
+  <si>
+    <t>082_15</t>
+  </si>
+  <si>
+    <t>R445_06_Исходящее соединение к внешнему хосту по порту управления БД</t>
+  </si>
+  <si>
+    <t>R445_06</t>
+  </si>
+  <si>
+    <t>445_06</t>
+  </si>
+  <si>
+    <t>R302_Манипуляции с атрибутами файла+FilePath</t>
+  </si>
+  <si>
+    <t>R302</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>R350_Подозрительная активность приложения MS Office</t>
+  </si>
+  <si>
+    <t>R350</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>R220_Сбор информации об учетных записях</t>
+  </si>
+  <si>
+    <t>R220</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>R079_Несколько хостов заражены одним типом вируса</t>
+  </si>
+  <si>
+    <t>R079</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>R109_Использование известных зловредных фреймворков для эксплуатации уязвимостей</t>
+  </si>
+  <si>
+    <t>R109</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>R296_Подозрительные аргументы при запуске системной утилиты</t>
+  </si>
+  <si>
+    <t>R296</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>R060_Большое количество манипуляций с группами за короткий промежуток времени</t>
+  </si>
+  <si>
+    <t>R060</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>R224_Сбор информации о системе</t>
+  </si>
+  <si>
+    <t>R224</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>R229_Сбор информации о службах</t>
+  </si>
+  <si>
+    <t>R229</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>R071_Получен доступ к ADMIN$</t>
+  </si>
+  <si>
+    <t>R071</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>Перемещение</t>
+  </si>
+  <si>
+    <t>R152_Запущенный процесс имеет подозрительный родительский процесс</t>
+  </si>
+  <si>
+    <t>R152</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>R077_07_KSC. Вредоносный объект обнаружен и был вылечен</t>
+  </si>
+  <si>
+    <t>R077_07</t>
+  </si>
+  <si>
+    <t>077_07</t>
+  </si>
+  <si>
+    <t>R110_Использование подозрительных опций в командах PowerShell</t>
+  </si>
+  <si>
+    <t>R110</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>R099_Манипуляции с задачами по расписанию</t>
+  </si>
+  <si>
+    <t>R099</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>R280_Изменение параметров сервиса Windows</t>
+  </si>
+  <si>
+    <t>R280</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>R406_Получение учетных данных через GUI-запросы +S.ScriptBlockText</t>
+  </si>
+  <si>
+    <t>R406</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>R422_Манипуляции с настройками аудита</t>
+  </si>
+  <si>
+    <t>R422</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>R089_Обнаружены возможные следы действий программ-вымогателей</t>
+  </si>
+  <si>
+    <t>R089</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>R151_Запуск процесса из подозрительной директории</t>
+  </si>
+  <si>
+    <t>R151</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>R431_Подозрительная активность подключаемых устройств</t>
+  </si>
+  <si>
+    <t>R431</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>R419_Манипуляции с сертификатами</t>
+  </si>
+  <si>
+    <t>R419</t>
+  </si>
+  <si>
+    <t>419</t>
   </si>
   <si>
     <t>R209_Сканирование хостов</t>
@@ -55,31 +622,196 @@
     <t>209</t>
   </si>
   <si>
-    <t>Обнаружение</t>
-  </si>
-  <si>
-    <t>R093_Изменение критичных веток реестра</t>
-  </si>
-  <si>
-    <t>R093</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>Закрепление</t>
-  </si>
-  <si>
-    <t>R087_Подозрение на внедрение в процесс</t>
-  </si>
-  <si>
-    <t>R087</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>Повышение привилегий</t>
+    <t>R402_Успешная доставка письма от внешнего отправителя, письма которого ранее блокировались</t>
+  </si>
+  <si>
+    <t>R105_Подозрение на обфускацию кода с использованием спецсимволов+S.ScriptBlockText</t>
+  </si>
+  <si>
+    <t>R105</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>R063_Добавление учетной записи в группу доменных или локальных администраторов</t>
+  </si>
+  <si>
+    <t>R063</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>R150_Манипуляции с именами системных утилит</t>
+  </si>
+  <si>
+    <t>R150</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>R111_Размонтирование сетевых ресурсов</t>
+  </si>
+  <si>
+    <t>R111</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>R093_37_Манипуляции с корневым сертификатом через реестр Windows</t>
+  </si>
+  <si>
+    <t>R093_37</t>
+  </si>
+  <si>
+    <t>093_37</t>
+  </si>
+  <si>
+    <t>R445_05_Входящее подключение от внешнего хоста по порту управления</t>
+  </si>
+  <si>
+    <t>R445_05</t>
+  </si>
+  <si>
+    <t>445_05</t>
+  </si>
+  <si>
+    <t>R226_Сбор информации о сетевых подключениях</t>
+  </si>
+  <si>
+    <t>R226</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>R225_Подозрительный доступ к данным веб-браузера</t>
+  </si>
+  <si>
+    <t>R225</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>R059_Большое количество манипуляций с учетными записями за короткий промежуток времени</t>
+  </si>
+  <si>
+    <t>R059</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>R410_Подписка на события WMI</t>
+  </si>
+  <si>
+    <t>R410</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>R055_Изменение группы в ОС Windows подозрительным пользователем</t>
+  </si>
+  <si>
+    <t>R055</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>R058_Локальная учетная запись была создана подозрительным пользователем</t>
+  </si>
+  <si>
+    <t>R058</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>R107_Использование сжатия данных</t>
+  </si>
+  <si>
+    <t>R107</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>R221_Сбор информации о группах</t>
+  </si>
+  <si>
+    <t>R221</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>R288_Манипуляции с файлами, имеющими нестандартные расширения</t>
+  </si>
+  <si>
+    <t>R288</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>R290_Запуск скриптов из общедоступной директории</t>
+  </si>
+  <si>
+    <t>R290</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>R293_Аномальное дерево процессов для Windows</t>
+  </si>
+  <si>
+    <t>R293</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>R445_01_Исходящее соединение к внешнему хосту по SMB порту</t>
+  </si>
+  <si>
+    <t>R445_01</t>
+  </si>
+  <si>
+    <t>445_01</t>
+  </si>
+  <si>
+    <t>R295_Манипуляции с системой непривилегированным процессом</t>
+  </si>
+  <si>
+    <t>R295</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>R052_Учетная запись была удалена из группы подозрительным пользователем</t>
+  </si>
+  <si>
+    <t>R052</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>R077_08_KSC. Вредоносный объект обнаружен и не был вылечен</t>
+  </si>
+  <si>
+    <t>R077_08</t>
+  </si>
+  <si>
+    <t>077_08</t>
   </si>
   <si>
     <t>R206_Обнаружен новый DHCP сервер</t>
@@ -91,76 +823,31 @@
     <t>206</t>
   </si>
   <si>
-    <t>Получение учетных данных</t>
-  </si>
-  <si>
-    <t>R410_Подписка на события WMI</t>
-  </si>
-  <si>
-    <t>R410</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>R062_Действия над группой из командной строки</t>
-  </si>
-  <si>
-    <t>R062</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>Выполнение</t>
-  </si>
-  <si>
-    <t>R150_Манипуляции с именами системных утилит</t>
-  </si>
-  <si>
-    <t>R150</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Предотвращение обнаружения</t>
-  </si>
-  <si>
-    <t>R080_Всплеск заражений ВПО</t>
-  </si>
-  <si>
-    <t>R080</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>R290_Запуск скриптов из общедоступной директории</t>
-  </si>
-  <si>
-    <t>R290</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>R003_Удаленный вход под учетной записью локального администратора</t>
-  </si>
-  <si>
-    <t>R003</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>R222_Сбор информации о сетевых папках</t>
-  </si>
-  <si>
-    <t>R222</t>
-  </si>
-  <si>
-    <t>222</t>
+    <t>R407_Обнаружение следов возможного перехвата вводимых данных</t>
+  </si>
+  <si>
+    <t>R407</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>R050_Очистка журнала событий Windows</t>
+  </si>
+  <si>
+    <t>R050</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>R401_Попытка обращения на запрещенный ресурс не из браузера</t>
+  </si>
+  <si>
+    <t>R401</t>
+  </si>
+  <si>
+    <t>401</t>
   </si>
   <si>
     <t>R302_04_Изменение разрешений папки/файла</t>
@@ -170,693 +857,6 @@
   </si>
   <si>
     <t>302_04</t>
-  </si>
-  <si>
-    <t>R082_15_Подключение с внутреннего узла по портам сети TOR</t>
-  </si>
-  <si>
-    <t>R082_15</t>
-  </si>
-  <si>
-    <t>082_15</t>
-  </si>
-  <si>
-    <t>R052_Учетная запись была удалена из группы подозрительным пользователем</t>
-  </si>
-  <si>
-    <t>R052</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>R082_Обнаружение туннелирования трафика</t>
-  </si>
-  <si>
-    <t>R082</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>Организация управления</t>
-  </si>
-  <si>
-    <t>R445_08_Исходящее подключение внутреннего узла к портам управления на внешнем узле</t>
-  </si>
-  <si>
-    <t>R445_08</t>
-  </si>
-  <si>
-    <t>445_08</t>
-  </si>
-  <si>
-    <t>R078_Обнаружено большое количество вредоносных объектов на одном хосте</t>
-  </si>
-  <si>
-    <t>R078</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>R105_Подозрение на обфускацию кода с использованием спецсимволов+S.ScriptBlockText</t>
-  </si>
-  <si>
-    <t>R105</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>R223_Сбор информации о процессах</t>
-  </si>
-  <si>
-    <t>R223</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>R231_Следы попыток дампа учетных данных</t>
-  </si>
-  <si>
-    <t>R231</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>R058_Локальная учетная запись была создана подозрительным пользователем</t>
-  </si>
-  <si>
-    <t>R058</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>R106_Подозрительные PowerShell команды. Подозрение на кодирование команд</t>
-  </si>
-  <si>
-    <t>R106</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>R225_Подозрительный доступ к данным веб-браузера</t>
-  </si>
-  <si>
-    <t>R225</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>R445_06_Исходящее соединение к внешнему хосту по порту управления БД</t>
-  </si>
-  <si>
-    <t>R445_06</t>
-  </si>
-  <si>
-    <t>445_06</t>
-  </si>
-  <si>
-    <t>R402_05_Попытка отправки письма с вредоносным файлом нескольким внутренним получателям</t>
-  </si>
-  <si>
-    <t>R402_05</t>
-  </si>
-  <si>
-    <t>402_05</t>
-  </si>
-  <si>
-    <t>R422_Манипуляции с настройками аудита</t>
-  </si>
-  <si>
-    <t>R422</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>R099_Манипуляции с задачами по расписанию</t>
-  </si>
-  <si>
-    <t>R099</t>
-  </si>
-  <si>
-    <t>099</t>
-  </si>
-  <si>
-    <t>R402_03_Попытка отправки письма с фишинговой ссылкой нескольким внутренним получателям (KSMG)</t>
-  </si>
-  <si>
-    <t>R402_03</t>
-  </si>
-  <si>
-    <t>402_03</t>
-  </si>
-  <si>
-    <t>R445_05_Входящее подключение от внешнего хоста по порту управления</t>
-  </si>
-  <si>
-    <t>R445_05</t>
-  </si>
-  <si>
-    <t>445_05</t>
-  </si>
-  <si>
-    <t>R302_07_Модификация атрибутов времени файла с помощью PowerShell+FilePath</t>
-  </si>
-  <si>
-    <t>R302_07</t>
-  </si>
-  <si>
-    <t>302_07</t>
-  </si>
-  <si>
-    <t>R035_Возможный подбор пароля методом перебора учетных записей</t>
-  </si>
-  <si>
-    <t>R035</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>R061_Действия над учетной записью</t>
-  </si>
-  <si>
-    <t>R061</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>R221_Сбор информации о группах</t>
-  </si>
-  <si>
-    <t>R221</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>R205_Обнаружен новый DNS сервер</t>
-  </si>
-  <si>
-    <t>R205</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>R431_Подозрительная активность подключаемых устройств</t>
-  </si>
-  <si>
-    <t>R431</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>R295_Манипуляции с системой непривилегированным процессом</t>
-  </si>
-  <si>
-    <t>R295</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>R240_Манипуляции с локальным межсетевым экраном</t>
-  </si>
-  <si>
-    <t>R240</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>R224_19_Получение информации о языке системы с помощью утилиты chcp</t>
-  </si>
-  <si>
-    <t>R224_19</t>
-  </si>
-  <si>
-    <t>224_19</t>
-  </si>
-  <si>
-    <t>R407_Обнаружение следов возможного перехвата вводимых данных</t>
-  </si>
-  <si>
-    <t>R407</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>R053_Создание группы на Windows системе подозрительным пользователем</t>
-  </si>
-  <si>
-    <t>R053</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>R107_Использование сжатия данных</t>
-  </si>
-  <si>
-    <t>R107</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>R402_Успешная доставка письма от внешнего отправителя, письма которого ранее блокировались</t>
-  </si>
-  <si>
-    <t>R402</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>R288_Манипуляции с файлами, имеющими нестандартные расширения</t>
-  </si>
-  <si>
-    <t>R288</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>R294_Обфускация команд PowerShell</t>
-  </si>
-  <si>
-    <t>R294</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>R302_Манипуляции с атрибутами файла+FilePath</t>
-  </si>
-  <si>
-    <t>R302</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>R111_Размонтирование сетевых ресурсов</t>
-  </si>
-  <si>
-    <t>R111</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>R229_Сбор информации о службах</t>
-  </si>
-  <si>
-    <t>R229</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>R333_Подозрительное создание файлов в директории автозапуска</t>
-  </si>
-  <si>
-    <t>R333</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>R291_Вызов внешних ресурсов для системных приложений Windows</t>
-  </si>
-  <si>
-    <t>R291</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>R401_Попытка обращения на запрещенный ресурс не из браузера</t>
-  </si>
-  <si>
-    <t>R401</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>R282_Остановка сервиса через CLI</t>
-  </si>
-  <si>
-    <t>R282</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>R445_01_Исходящее соединение к внешнему хосту по SMB порту</t>
-  </si>
-  <si>
-    <t>R445_01</t>
-  </si>
-  <si>
-    <t>445_01</t>
-  </si>
-  <si>
-    <t>R089_Обнаружены возможные следы действий программ-вымогателей</t>
-  </si>
-  <si>
-    <t>R089</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>R284_Создание исполняемых файлов в общедоступной директории (PowerShell)</t>
-  </si>
-  <si>
-    <t>R284</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>R055_Изменение группы в ОС Windows подозрительным пользователем</t>
-  </si>
-  <si>
-    <t>R055</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>R350_Подозрительная активность приложения MS Office</t>
-  </si>
-  <si>
-    <t>R350</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>R093_37_Манипуляции с корневым сертификатом через реестр Windows</t>
-  </si>
-  <si>
-    <t>R093_37</t>
-  </si>
-  <si>
-    <t>093_37</t>
-  </si>
-  <si>
-    <t>R060_Большое количество манипуляций с группами за короткий промежуток времени</t>
-  </si>
-  <si>
-    <t>R060</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>R059_Большое количество манипуляций с учетными записями за короткий промежуток времени</t>
-  </si>
-  <si>
-    <t>R059</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>R293_Аномальное дерево процессов для Windows</t>
-  </si>
-  <si>
-    <t>R293</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>R051_Учетная запись была добавлена в группу подозрительным пользователем</t>
-  </si>
-  <si>
-    <t>R051</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>R402_Потенциально фишинговое письмо</t>
-  </si>
-  <si>
-    <t>R351_Подозрение на фишинг при создании подозрительного файла</t>
-  </si>
-  <si>
-    <t>R351</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>R219_Использование VPN портов</t>
-  </si>
-  <si>
-    <t>R219</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>R220_Сбор информации об учетных записях</t>
-  </si>
-  <si>
-    <t>R220</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>R406_Получение учетных данных через GUI-запросы +S.ScriptBlockText</t>
-  </si>
-  <si>
-    <t>R406</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>R280_Изменение параметров сервиса Windows</t>
-  </si>
-  <si>
-    <t>R280</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>R151_Запуск процесса из подозрительной директории</t>
-  </si>
-  <si>
-    <t>R151</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>R077_08_KSC. Вредоносный объект обнаружен и не был вылечен</t>
-  </si>
-  <si>
-    <t>R077_08</t>
-  </si>
-  <si>
-    <t>077_08</t>
-  </si>
-  <si>
-    <t>R152_Запущенный процесс имеет подозрительный родительский процесс</t>
-  </si>
-  <si>
-    <t>R152</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>R071_Получен доступ к ADMIN$</t>
-  </si>
-  <si>
-    <t>R071</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>Перемещение</t>
-  </si>
-  <si>
-    <t>R077_07_KSC. Вредоносный объект обнаружен и был вылечен</t>
-  </si>
-  <si>
-    <t>R077_07</t>
-  </si>
-  <si>
-    <t>077_07</t>
-  </si>
-  <si>
-    <t>R262_Подозрительный доступ к процессу LSASS</t>
-  </si>
-  <si>
-    <t>R262</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>R296_Подозрительные аргументы при запуске системной утилиты</t>
-  </si>
-  <si>
-    <t>R296</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>R050_Очистка журнала событий Windows</t>
-  </si>
-  <si>
-    <t>R050</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>R423_Подозрительный процесс компиляции файла</t>
-  </si>
-  <si>
-    <t>R423</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>R419_Манипуляции с сертификатами</t>
-  </si>
-  <si>
-    <t>R419</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>R102_Доступ к WinAPI</t>
-  </si>
-  <si>
-    <t>R102</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>R226_Сбор информации о сетевых подключениях</t>
-  </si>
-  <si>
-    <t>R226</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>R109_Использование известных зловредных фреймворков для эксплуатации уязвимостей</t>
-  </si>
-  <si>
-    <t>R109</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>R079_Несколько хостов заражены одним типом вируса</t>
-  </si>
-  <si>
-    <t>R079</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>R084_Использование ПО для удаленного администрирования</t>
-  </si>
-  <si>
-    <t>R084</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>R110_Использование подозрительных опций в командах PowerShell</t>
-  </si>
-  <si>
-    <t>R110</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>R999_Подозрительные обращения к ActiveSync</t>
-  </si>
-  <si>
-    <t>R999</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>R083_Обнаружены следы использования нежелательных утилит</t>
-  </si>
-  <si>
-    <t>R083</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>R224_Сбор информации о системе</t>
-  </si>
-  <si>
-    <t>R224</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>R075_Подозрительные действия с Kerberos (редко встречаемая ошибка)</t>
-  </si>
-  <si>
-    <t>R075</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>R063_Добавление учетной записи в группу доменных или локальных администраторов</t>
-  </si>
-  <si>
-    <t>R063</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>Сбор данных</t>
   </si>
 </sst>
 </file>
@@ -912,10 +912,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,13 +1224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,91 +1342,91 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,7 +1454,7 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,49 +1468,49 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1521,7 +1524,7 @@
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,18 +1538,18 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1554,139 +1557,139 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -1694,335 +1697,335 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
+        <v>169</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2030,27 +2033,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2058,436 +2061,436 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
